--- a/意向院校整理.xlsx
+++ b/意向院校整理.xlsx
@@ -5,16 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32165\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\32165\Desktop\BaoYan\BaoYanInformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC71073-FCF7-4292-AAD9-F25296225019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA623F3-5528-4479-A4D0-19D4E6095FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="开营情况" sheetId="1" r:id="rId1"/>
-    <sheet name="进程表" sheetId="2" r:id="rId2"/>
+    <sheet name="意向院校整理" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>目标院校</t>
   </si>
@@ -54,181 +53,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>华南理工计算机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>上午</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8点30</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">抽签面试
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9点</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开始面试</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>外语测试时间</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（口语测试题）+综合素质与专业知识考核</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（PPT展示</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>内）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江大学软件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>下午</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1点30</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机试</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>厦门大学AI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子科技大学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语测试+综合面试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>注意事项：入营通知发布时间及方式、是否邮寄材料等信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -240,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,24 +160,8 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,14 +204,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -439,79 +241,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,34 +311,6 @@
     <xf numFmtId="58" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="14" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -648,55 +355,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>53339</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>137161</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>352246</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF73416C-A289-D53A-F986-197DB18D42CD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11673839" y="342901"/>
-          <a:ext cx="3346907" cy="1112519"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -960,7 +618,7 @@
   <dimension ref="A1:XFD57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -996,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="14" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
@@ -17837,556 +17495,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E534100-7656-4FD0-B4C7-87D576F3A6E2}">
-  <dimension ref="A1:S23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="16.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.21875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.21875" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="28"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27">
-        <v>44823</v>
-      </c>
-      <c r="C1" s="27">
-        <v>44824</v>
-      </c>
-      <c r="D1" s="27">
-        <v>44825</v>
-      </c>
-      <c r="E1" s="27">
-        <v>44826</v>
-      </c>
-      <c r="F1" s="27">
-        <v>44827</v>
-      </c>
-      <c r="G1" s="27">
-        <v>44828</v>
-      </c>
-      <c r="H1" s="27">
-        <v>44829</v>
-      </c>
-      <c r="I1" s="27">
-        <v>44830</v>
-      </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-    </row>
-    <row r="2" spans="1:19" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="A2" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A5" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="29"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="29"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="29"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G2:P2"/>
-    <mergeCell ref="H3:P3"/>
-    <mergeCell ref="F4:P4"/>
-    <mergeCell ref="J5:P5"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>